--- a/data/income_statement/1digit/size/H_IS_MICRO.xlsx
+++ b/data/income_statement/1digit/size/H_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>H-Transporting and storage</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>H-Transporting and storage</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,2078 +841,2346 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>6857103.843410001</v>
+        <v>7184189.575750001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>7636670.317869999</v>
+        <v>8003827.33759</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>8418581.03259</v>
+        <v>8838304.12592</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>8259467.406009999</v>
+        <v>8771944.298350001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>8793505.446460001</v>
+        <v>9382793.651839999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>9148273.164550001</v>
+        <v>9826275.645049999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>8710373.558669999</v>
+        <v>9638706.982339999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>9177910.498469999</v>
+        <v>10145513.80887</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>9922667.837210003</v>
+        <v>10928038.70289</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>21925481.87848</v>
+        <v>23274671.85533</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>23110545.44741</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>25823178.87812</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>27200931.004</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>5641001.25738</v>
+        <v>5888845.53908</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>6336237.311450001</v>
+        <v>6624428.86101</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>6909352.326010001</v>
+        <v>7240615.59443</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>6768266.372590001</v>
+        <v>7183845.10134</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>7109063.544519998</v>
+        <v>7592331.186159999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>6986197.584670001</v>
+        <v>7532552.90649</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>6968003.699</v>
+        <v>7732634.218600001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>7253914.576779999</v>
+        <v>8041567.90431</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>7591087.709409999</v>
+        <v>8433955.834339999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>15938343.57538</v>
+        <v>17009306.98483</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>16594139.93198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>18654607.56991</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>19701224.788</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>891953.0913499999</v>
+        <v>948481.70444</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>954498.63088</v>
+        <v>1009375.68612</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1190203.65912</v>
+        <v>1253437.33983</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1197170.92086</v>
+        <v>1267125.81871</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1380706.83365</v>
+        <v>1462672.21953</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1846160.67352</v>
+        <v>1947460.10269</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1419314.06761</v>
+        <v>1532668.01854</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1576842.1265</v>
+        <v>1691955.19161</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1933282.33654</v>
+        <v>2026381.83217</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>5246293.86604</v>
+        <v>5443892.23815</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>5686616.07613</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>6234350.94583</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>6587502.622</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>324149.49468</v>
+        <v>346862.33223</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>345934.37554</v>
+        <v>370022.79046</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>319025.04746</v>
+        <v>344251.19166</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>294030.11256</v>
+        <v>320973.3782999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>303735.06829</v>
+        <v>327790.24615</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>315914.90636</v>
+        <v>346262.63587</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>323055.7920599999</v>
+        <v>373404.7452</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>347153.79519</v>
+        <v>411990.71295</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>398297.79126</v>
+        <v>467701.0363800001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>740844.43706</v>
+        <v>821472.63235</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>829789.4393000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>934220.3623800001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>912203.594</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>9029.65034</v>
+        <v>9878.074430000001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>18549.92648</v>
+        <v>20630.9266</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>18487.05136</v>
+        <v>23187.90984</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>19807.61587</v>
+        <v>21174.78921</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>16365.31039</v>
+        <v>18236.71426</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>20176.72172</v>
+        <v>24538.30051</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>14287.54075</v>
+        <v>29467.09389</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>12238.90916</v>
+        <v>25673.11902</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>17690.70155</v>
+        <v>40979.78951</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>47037.08394999999</v>
+        <v>58698.48225</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>74421.64055</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>87573.52471000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>536117.524</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>7369.937959999999</v>
+        <v>8117.992550000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>9360.19303</v>
+        <v>10905.23004</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>13421.34588</v>
+        <v>15442.46639</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>15972.50746</v>
+        <v>17153.81349</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>12505.8139</v>
+        <v>13779.03614</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>16091.88666</v>
+        <v>19235.62692</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>9229.579539999999</v>
+        <v>23849.76590999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>9475.40315</v>
+        <v>21485.61139</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>15255.49203</v>
+        <v>38195.11092</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>36029.33555</v>
+        <v>43300.45226</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>63322.08176000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>75450.16282</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>521761.126</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1070.33574</v>
+        <v>1144.08546</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1831.56322</v>
+        <v>1885.98236</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1984.64828</v>
+        <v>2245.27833</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1897.31962</v>
+        <v>2053.95416</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1850.56173</v>
+        <v>2083.42858</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>829.14717</v>
+        <v>867.59686</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>928.0175300000001</v>
+        <v>1288.63377</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>604.4959</v>
+        <v>1057.49991</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>564.7204199999999</v>
+        <v>791.9035799999999</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>2763.59367</v>
+        <v>3975.44669</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>4026.05909</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>4791.475520000001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>4913.907</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>589.3766400000001</v>
+        <v>615.9964199999999</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>7358.170230000001</v>
+        <v>7839.7142</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>3081.0572</v>
+        <v>5500.165120000001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1937.78879</v>
+        <v>1967.02156</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>2008.93476</v>
+        <v>2374.24954</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>3255.68789</v>
+        <v>4435.07673</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>4129.943679999999</v>
+        <v>4328.69421</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>2159.01011</v>
+        <v>3130.00772</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1870.4891</v>
+        <v>1992.77501</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>8244.15473</v>
+        <v>11422.5833</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>7073.4997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>7331.88637</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>9442.491</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>6848074.19307</v>
+        <v>7174311.50132</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>7618120.39139</v>
+        <v>7983196.41099</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>8400093.98123</v>
+        <v>8815116.216079999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>8239659.79014</v>
+        <v>8750769.50914</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>8777140.136070002</v>
+        <v>9364556.937580001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>9128096.44283</v>
+        <v>9801737.344539998</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>8696086.017919999</v>
+        <v>9609239.88845</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>9165671.589310002</v>
+        <v>10119840.68985</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>9904977.13566</v>
+        <v>10887058.91338</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>21878444.79453</v>
+        <v>23215973.37308</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>23036123.80686</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>25735605.35341</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>26664813.48</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>5471527.960059999</v>
+        <v>5722342.27092</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>6149350.19845</v>
+        <v>6420056.241450001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>6826472.227689998</v>
+        <v>7194908.285189999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>6627091.103089999</v>
+        <v>7024291.794009998</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>7046538.270529999</v>
+        <v>7485648.012859998</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>7317505.18961</v>
+        <v>7819625.473219998</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6988917.217180002</v>
+        <v>7689891.752119999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>7507519.730059998</v>
+        <v>8296970.131480001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>8155347.50232</v>
+        <v>8911527.23741</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>18476129.21752001</v>
+        <v>19656521.09277</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>19486849.71089</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>21792513.24334</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>22214342.64</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>111086.12246</v>
+        <v>117240.23673</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>97036.78442000001</v>
+        <v>104599.1083</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>102108.21708</v>
+        <v>113962.29789</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>107078.39769</v>
+        <v>118967.87219</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>92567.24597</v>
+        <v>103157.03603</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>108129.66801</v>
+        <v>123142.24918</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>96645.29949999998</v>
+        <v>112626.04261</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>87163.69732000001</v>
+        <v>106662.23601</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>78719.61073</v>
+        <v>97206.07865999998</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>212324.56215</v>
+        <v>238689.38256</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>257287.9493</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>302715.08133</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>268226.332</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>1181027.68294</v>
+        <v>1223731.07074</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1322549.83253</v>
+        <v>1363551.0593</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1519718.46207</v>
+        <v>1569629.52579</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1285830.63693</v>
+        <v>1356883.06124</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1380834.19101</v>
+        <v>1458473.69169</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1618032.64749</v>
+        <v>1703552.22028</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1345866.72104</v>
+        <v>1458556.77087</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1593426.7007</v>
+        <v>1756384.28778</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1703578.57974</v>
+        <v>1821683.8909</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3976013.74902</v>
+        <v>4256573.56759</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>4299104.054819999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>5071798.653410001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5009247.191</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>4148335.27085</v>
+        <v>4347070.842410001</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>4706214.823270001</v>
+        <v>4923213.79832</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>5183319.04077</v>
+        <v>5487026.95548</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>5210607.966339999</v>
+        <v>5523366.44386</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>5551753.7454</v>
+        <v>5898378.426819999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>5541232.6469</v>
+        <v>5935881.80434</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>5472600.282639999</v>
+        <v>6027294.577709999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>5735899.3515</v>
+        <v>6327432.263809999</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>6278427.50732</v>
+        <v>6879392.08665</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>14017199.06136</v>
+        <v>14867084.70216</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>14671081.01236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>16116943.28471</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>16501279.263</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>31078.88381</v>
+        <v>34300.12104</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>23548.75823</v>
+        <v>28692.27553</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>21326.50777</v>
+        <v>24289.50603</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>23574.10213</v>
+        <v>25074.41672</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>21383.08815</v>
+        <v>25638.85832</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>50110.22721000001</v>
+        <v>57049.19942</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>73804.914</v>
+        <v>91414.36093000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>91029.98053999999</v>
+        <v>106491.34388</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>94621.80452999999</v>
+        <v>113245.1812</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>270591.84499</v>
+        <v>294173.44046</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>259376.69441</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>301056.22389</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>435589.854</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1376546.23301</v>
+        <v>1451969.2304</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1468770.19294</v>
+        <v>1563140.16954</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1573621.75354</v>
+        <v>1620207.93089</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1612568.68705</v>
+        <v>1726477.71513</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1730601.86554</v>
+        <v>1878908.92472</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1810591.25322</v>
+        <v>1982111.87132</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1707168.80074</v>
+        <v>1919348.13633</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1658151.85925</v>
+        <v>1822870.55837</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1749629.63334</v>
+        <v>1975531.67597</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3402315.57701</v>
+        <v>3559452.28031</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3549274.09597</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3943092.11007</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4450470.84</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1326853.89122</v>
+        <v>1487102.97599</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1414242.76864</v>
+        <v>1595396.78348</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1543816.39857</v>
+        <v>1760189.9814</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1581888.65916</v>
+        <v>1762641.60424</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1660261.75906</v>
+        <v>1930172.55904</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1772195.48986</v>
+        <v>2033440.10472</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1696287.39591</v>
+        <v>2020632.88882</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1713876.81412</v>
+        <v>2088585.45594</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1788019.87648</v>
+        <v>2150885.07764</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>3320238.28509</v>
+        <v>3742451.36454</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3545785.20932</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4149829.87041</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>4588017.427</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>2647.60605</v>
+        <v>2785.69471</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>2413.751499999999</v>
+        <v>2467.72488</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1986.35146</v>
+        <v>2005.29983</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>3815.81705</v>
+        <v>4228.70589</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>5678.131439999999</v>
+        <v>5700.8006</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>8136.238179999999</v>
+        <v>8162.85583</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>6138.99199</v>
+        <v>6834.858949999999</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>4696.61534</v>
+        <v>5195.00086</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>2290.26423</v>
+        <v>2925.33029</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>4299.19594</v>
+        <v>4595.02958</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>3336.46661</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>4821.69355</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>9878.314</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>166191.39576</v>
+        <v>180427.85144</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>187456.57924</v>
+        <v>199918.01664</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>201157.19553</v>
+        <v>218691.5135</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>215771.54285</v>
+        <v>231149.56748</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>246286.95947</v>
+        <v>265083.07439</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>237968.01826</v>
+        <v>267291.08287</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>235884.75615</v>
+        <v>265326.10481</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>252974.28758</v>
+        <v>282778.51101</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>259231.78452</v>
+        <v>285136.97979</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>495992.8867500001</v>
+        <v>524959.43206</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>565423.7248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>644729.08147</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>644156.806</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>1158014.88941</v>
+        <v>1303889.42984</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1224372.4379</v>
+        <v>1393011.04196</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1340672.85158</v>
+        <v>1539493.16807</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1362301.29926</v>
+        <v>1527263.33087</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1408296.66815</v>
+        <v>1659388.68405</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1526091.23342</v>
+        <v>1757986.16602</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1454263.64777</v>
+        <v>1748471.92506</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1456205.9112</v>
+        <v>1800611.94407</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1526497.82773</v>
+        <v>1862822.76756</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2819946.2024</v>
+        <v>3212896.9029</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2977025.01791</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3500279.09539</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3933982.307</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>49692.34179000001</v>
+        <v>-35133.74559000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>54527.42430000001</v>
+        <v>-32256.61394000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>29805.35497</v>
+        <v>-139982.05051</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>30680.02789</v>
+        <v>-36163.88910999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>70340.10647999999</v>
+        <v>-51263.63432</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>38395.76336</v>
+        <v>-51328.23339999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>10881.40483</v>
+        <v>-101284.75249</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-55724.95487</v>
+        <v>-265714.89757</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-38390.24314000001</v>
+        <v>-175353.40167</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>82077.29191999999</v>
+        <v>-182999.08423</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>3488.886650000008</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-206737.76034</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-137546.587</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>63981.20951</v>
+        <v>625832.96163</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>70446.23521000001</v>
+        <v>608826.6326999998</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>87771.41347000001</v>
+        <v>628717.72402</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>86944.7602</v>
+        <v>605340.1342299999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>81853.38837</v>
+        <v>954610.5953099999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>95137.13175</v>
+        <v>1640445.37034</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>105957.50702</v>
+        <v>2645230.14734</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>94395.72895999999</v>
+        <v>1511370.17106</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>102432.18637</v>
+        <v>1854393.57384</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>480619.71517</v>
+        <v>6315805.05905</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>313784.93239</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>3098346.27013</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>6771381.682</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>1254.39528</v>
+        <v>102911.44749</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>1009.4579</v>
+        <v>146539.53212</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>205.00907</v>
+        <v>122489.7808</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>1476.4874</v>
+        <v>149299.63081</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1472.99875</v>
+        <v>326421.3233800001</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>940.69478</v>
+        <v>269584.86381</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>382.8285</v>
+        <v>788411.07527</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>273.00114</v>
+        <v>138763.52001</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>651.22149</v>
+        <v>157983.7777</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>1524.50844</v>
+        <v>184859.23169</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>2683.39997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>603909.76223</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>2156493.488</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>190.20024</v>
+        <v>184638.6692</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>186.54358</v>
+        <v>33913.40965</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>1306.24685</v>
+        <v>45562.73871</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>183.28542</v>
+        <v>82712.61366000002</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>594.9591899999999</v>
+        <v>90322.10149000002</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>539.00137</v>
+        <v>124837.14934</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>838.49855</v>
+        <v>174247.53649</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>445.1399</v>
+        <v>224162.00136</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>266.7525</v>
+        <v>543200.30547</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>1712.53032</v>
+        <v>375551.09864</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2957.1678</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>254882.12731</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>17783.628</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>4949.73574</v>
+        <v>39744.40521000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>4542.08208</v>
+        <v>24828.31731</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>3755.84182</v>
+        <v>28002.73056</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>3872.14111</v>
+        <v>29323.87502</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>3964.44462</v>
+        <v>43753.6395</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>3966.43941</v>
+        <v>52811.90447000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>4377.68197</v>
+        <v>59056.96207999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4484.095230000001</v>
+        <v>52585.97058</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>5738.12244</v>
+        <v>60016.0104</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>21010.06741</v>
+        <v>189541.29432</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>26679.54928000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>275440.0968</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>161603.933</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>3100.73812</v>
+        <v>6349.98079</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>5150.13883</v>
+        <v>6920.01738</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>5580.45169</v>
+        <v>6268.02664</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>7433.916480000001</v>
+        <v>9429.250470000001</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>3525.14374</v>
+        <v>6525.74132</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>3265.47971</v>
+        <v>17260.07401</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>3523.96681</v>
+        <v>6095.03723</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>3932.000430000001</v>
+        <v>6378.539299999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>3677.7934</v>
+        <v>7653.94328</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>12309.6936</v>
+        <v>12388.45007</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>8536.563559999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>15994.85751</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>7775.918</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1291.56315</v>
+        <v>1401.7344</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>487.56116</v>
+        <v>761.58051</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1438.04768</v>
+        <v>1930.04008</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1663.14433</v>
+        <v>1837.42671</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1789.2957</v>
+        <v>2159.52268</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>704.32084</v>
+        <v>844.1050399999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1106.93498</v>
+        <v>6381.995370000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1409.89808</v>
+        <v>2777.50021</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>2296.75214</v>
+        <v>2885.37633</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>2779.52136</v>
+        <v>3027.32262</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>3181.50676</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>3436.97917</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>3459.354</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1049.29626</v>
+        <v>2430.85822</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>998.9640599999999</v>
+        <v>23093.49673</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>831.3364799999999</v>
+        <v>5730.81015</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>658.08286</v>
+        <v>8636.45073</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>908.71245</v>
+        <v>11429.61539</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>845.6636</v>
+        <v>7061.287550000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>643.16693</v>
+        <v>5568.513910000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>833.62595</v>
+        <v>2306.81656</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>653.26771</v>
+        <v>3517.378729999999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1984.72138</v>
+        <v>4519.926449999999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1845.6127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>21914.87248</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>3428.755</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>22736.94594</v>
+        <v>221039.91283</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>24964.02668</v>
+        <v>292325.5855599999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>36306.96052</v>
+        <v>348524.3647100001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>26605.71501</v>
+        <v>249680.74057</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>34277.35664</v>
+        <v>414296.26531</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>50477.30843</v>
+        <v>1093340.58817</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>53634.475</v>
+        <v>1518882.04481</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>46936.14759</v>
+        <v>986682.1748599999</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>41148.01009</v>
+        <v>981832.4123699999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>354574.30751</v>
+        <v>4585941.644260001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>163241.14562</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1698099.82678</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>4208971.997</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>553.0279400000001</v>
+        <v>568.69085</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>76.98051999999998</v>
+        <v>77.42823999999999</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>78.38784000000001</v>
+        <v>80.22503999999999</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>63.77839</v>
+        <v>219.70784</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>159.21074</v>
+        <v>231.40309</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>26.70234</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>106.72944</v>
+        <v>161.2995</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>4.87025</v>
+        <v>91.62171000000001</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>19.57679</v>
+        <v>28.53401</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>163.20031</v>
+        <v>163.20565</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>11.02682</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>1811.60218</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>349.0656</v>
+        <v>384.08644</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>934.09695</v>
+        <v>974.01186</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>209.96371</v>
+        <v>213.96016</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>186.36379</v>
+        <v>205.78601</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>348.18839</v>
+        <v>352.3639499999999</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>237.82813</v>
+        <v>259.1421</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>969.84996</v>
+        <v>1056.97592</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>100.67541</v>
+        <v>281.36248</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>257.65856</v>
+        <v>259.85856</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>713.58325</v>
+        <v>723.89936</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>224.62469</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>249.10399</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>695.222</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>28506.24124</v>
+        <v>66363.1762</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>32096.38345</v>
+        <v>79393.25334000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>38059.16781</v>
+        <v>69915.04717000001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>44801.84540999999</v>
+        <v>73994.65241</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>34813.07815</v>
+        <v>59118.61919999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>34133.69314</v>
+        <v>74419.55351000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>40373.37488</v>
+        <v>85368.70675999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>35976.27497999999</v>
+        <v>97340.66399000002</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>47723.03125000001</v>
+        <v>97015.97699</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>83847.58159</v>
+        <v>959088.98599</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>104424.33519</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>222607.04168</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>211159.787</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>44312.73776999999</v>
+        <v>190043.84337</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>48869.70517</v>
+        <v>263136.95503</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>75882.91493000001</v>
+        <v>390065.96585</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>51002.7813</v>
+        <v>225930.9981</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>54982.82732999999</v>
+        <v>487237.23876</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>71903.39025</v>
+        <v>1117586.92204</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>82173.36638000001</v>
+        <v>1556868.95853</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>70157.46793999999</v>
+        <v>1451746.54637</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>75286.77673</v>
+        <v>1369675.73296</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>437523.8511099999</v>
+        <v>6723223.43929</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>207542.57437</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2510103.58699</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>6458062.086</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>3303.51914</v>
+        <v>4891.60862</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>3351.05529</v>
+        <v>4416.187629999999</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>2956.16943</v>
+        <v>3035.68714</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>5073.18381</v>
+        <v>5223.30426</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>3535.79135</v>
+        <v>4196.80731</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>3705.80478</v>
+        <v>3849.713130000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>3633.69693</v>
+        <v>166737.00376</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>3737.59334</v>
+        <v>4538.303089999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>3149.38115</v>
+        <v>3425.58262</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>9954.095399999998</v>
+        <v>10842.96216</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>12472.40226</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>14025.27249</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>11357.618</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1771.11805</v>
+        <v>8019.710700000001</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>2068.63076</v>
+        <v>2952.67282</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>2028.6385</v>
+        <v>3632.92432</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>3440.21374</v>
+        <v>4661.8946</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>2764.86751</v>
+        <v>3423.6785</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>5206.802200000001</v>
+        <v>5816.661970000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>5087.04269</v>
+        <v>6957.9137</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>2833.12847</v>
+        <v>4830.40416</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>5659.47146</v>
+        <v>25060.56304</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>9999.453780000002</v>
+        <v>12725.54239</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>8198.08368</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>18706.95097</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>15333.954</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>581.4876400000001</v>
+        <v>1818.76804</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>1051.04186</v>
+        <v>4931.30395</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>882.13306</v>
+        <v>4226.46705</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>664.0465799999999</v>
+        <v>3947.20176</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>836.03415</v>
+        <v>1412.47942</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>747.99648</v>
+        <v>4748.47485</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>453.46456</v>
+        <v>1054.09199</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>167.98003</v>
+        <v>292.0293</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>460.86623</v>
+        <v>6311.12834</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>664.5929200000002</v>
+        <v>700.35776</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>522.94871</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>39524.59018</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>69495.912</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>22256.20135</v>
+        <v>139482.51418</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>24251.56586</v>
+        <v>206800.0523</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>40409.51913</v>
+        <v>301936.17435</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>23560.46709</v>
+        <v>175278.60033</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>33176.64898</v>
+        <v>437298.35291</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>49550.709</v>
+        <v>1045562.46753</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>53876.92429</v>
+        <v>1317065.32514</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>44538.15828</v>
+        <v>1398989.64335</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>44720.19884</v>
+        <v>1286018.85132</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>383538.61172</v>
+        <v>6637732.584659999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>144841.76289</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2370580.79755</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>6284089.219</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>125.85704</v>
+        <v>143.19868</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>107.15363</v>
+        <v>107.68883</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>76.77515999999999</v>
+        <v>99.27515999999999</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>53.75662999999999</v>
+        <v>60.27893</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>129.34664</v>
+        <v>156.59226</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>173.39966</v>
+        <v>201.39718</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>97.50828999999999</v>
+        <v>112.02364</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>264.22343</v>
+        <v>393.21599</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>96.14139999999999</v>
+        <v>125.89642</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>870.5745400000002</v>
+        <v>1959.9843</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>81.69484999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>1448.07558</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>84.417</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>252.35526</v>
+        <v>252.39791</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>564.4460600000001</v>
+        <v>602.79374</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>478.76319</v>
+        <v>1028.7488</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>191.03623</v>
+        <v>191.16001</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>154.27158</v>
+        <v>154.27181</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>217.42377</v>
+        <v>220.45377</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>625.9199199999999</v>
+        <v>2761.47038</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>76.90877</v>
+        <v>168.15722</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>15.93052</v>
+        <v>39.01367</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>53.85575</v>
+        <v>53.85579</v>
       </c>
       <c r="M42" s="48" t="n">
         <v>33.29245</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>105.102</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>16022.19929</v>
+        <v>35435.64524000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>17475.81171</v>
+        <v>43326.25576</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>29050.91646</v>
+        <v>76106.68902999999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>18020.07722</v>
+        <v>36568.55821</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>14385.86712</v>
+        <v>40595.05654999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>12301.25436</v>
+        <v>57187.75361000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>18398.8097</v>
+        <v>62181.12992</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>18539.47562</v>
+        <v>42534.79326</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>21184.78713</v>
+        <v>48694.69755</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>32442.667</v>
+        <v>59208.15223000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>41392.38953000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>65784.60777</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>77595.864</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>58501.60337</v>
+        <v>194338.7452</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>44707.63535000001</v>
+        <v>183891.35487</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>65659.50042000001</v>
+        <v>279553.10488</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>60557.90299</v>
+        <v>179276.64354</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>62287.58093000001</v>
+        <v>359986.46646</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>60737.96551</v>
+        <v>331852.76406</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>77235.91844999998</v>
+        <v>455744.59681</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>79030.89579</v>
+        <v>390934.44054</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>71021.22958</v>
+        <v>301410.9237700001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>199975.29051</v>
+        <v>738519.8817799999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>197118.01322</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1083786.49944</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1492285.307</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>50123.15553</v>
+        <v>77868.70112</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>38926.18583</v>
+        <v>68569.81072000001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>51859.4137</v>
+        <v>99533.89908</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>55185.3711</v>
+        <v>104762.81564</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>54335.15083999999</v>
+        <v>161513.13654</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>54256.72908</v>
+        <v>168199.0792</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>69411.99703999999</v>
+        <v>177962.13916</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>68688.34593</v>
+        <v>196120.8455</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>60250.30907</v>
+        <v>231615.66389</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>180241.85316</v>
+        <v>665671.19027</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>178854.19666</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1011788.34889</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1329843.094</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>8378.447840000001</v>
+        <v>116470.04408</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>5781.44952</v>
+        <v>115321.54415</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>13800.08672</v>
+        <v>180019.2058</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>5372.53189</v>
+        <v>74513.8279</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>7952.43009</v>
+        <v>198473.32992</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>6481.23643</v>
+        <v>163653.68486</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>7823.92141</v>
+        <v>277782.45765</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>10342.54986</v>
+        <v>194813.59504</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>10770.92051</v>
+        <v>69795.25988</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>19733.43735</v>
+        <v>72848.69151</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>18263.81656</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>71998.15054999999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>162442.213</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>10859.21016</v>
+        <v>206316.62747</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>31396.31899</v>
+        <v>129541.70886</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-23965.64691</v>
+        <v>-180883.39722</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>6064.103800000001</v>
+        <v>163968.60348</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>34923.08659</v>
+        <v>56123.25576999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>891.5393499999946</v>
+        <v>139677.45084</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-42570.37298000001</v>
+        <v>531331.8395100001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-110517.58964</v>
+        <v>-597025.7134199999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-82266.06308000001</v>
+        <v>7953.515439999938</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-74802.13452999998</v>
+        <v>-1328937.34625</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-87386.76854999996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-702281.57664</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-1316512.298</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>64531.26897999999</v>
+        <v>114770.3351</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>84948.89464</v>
+        <v>134650.33189</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>112406.01529</v>
+        <v>230226.21244</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>90726.87689999997</v>
+        <v>145955.6192</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>92269.52239000001</v>
+        <v>251599.54116</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>109020.26984</v>
+        <v>195243.1692</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>108797.87325</v>
+        <v>264609.78071</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>115977.06587</v>
+        <v>382776.93026</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>134472.58348</v>
+        <v>252016.5816</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>289502.35009</v>
+        <v>555394.76886</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>305360.12475</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>561273.82186</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>609377.113</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>4492.36524</v>
+        <v>4800.50801</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>2253.3522</v>
+        <v>3754.5916</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>3148.52883</v>
+        <v>3711.36999</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1413.94085</v>
+        <v>3088.5448</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1013.57633</v>
+        <v>6608.51768</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1303.67097</v>
+        <v>1564.32003</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1202.4301</v>
+        <v>1537.494</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>873.7400699999999</v>
+        <v>4520.331279999999</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1710.0975</v>
+        <v>2081.12018</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>3632.65138</v>
+        <v>6457.32828</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1434.12303</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>5750.135470000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>7868.088</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>60038.90373999999</v>
+        <v>109969.82709</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>82695.54244</v>
+        <v>130895.74029</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>109257.48646</v>
+        <v>226514.84245</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>89312.93604999999</v>
+        <v>142867.0744</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>91255.94606</v>
+        <v>244991.02348</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>107716.59887</v>
+        <v>193678.84917</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>107595.44315</v>
+        <v>263072.28671</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>115103.3258</v>
+        <v>378256.59898</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>132762.48598</v>
+        <v>249935.4614199999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>285869.6987099999</v>
+        <v>548937.4405800001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>303926.00172</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>555523.6863899999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>601509.025</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>71992.19735999999</v>
+        <v>111736.61717</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>81659.0203</v>
+        <v>149098.07409</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>395885.4229000001</v>
+        <v>612062.1097799999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>90341.5747</v>
+        <v>136212.17503</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>97517.46223</v>
+        <v>148654.60387</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>209641.95427</v>
+        <v>304477.9108700001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>107560.54363</v>
+        <v>199345.41898</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>217324.1197299999</v>
+        <v>503340.2052800001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>109126.59542</v>
+        <v>218581.42217</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>365854.63954</v>
+        <v>657157.2077499999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>246332.0736</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>394432.20109</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>962871.817</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>897.7409399999998</v>
+        <v>1555.6817</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>936.45964</v>
+        <v>12903.74454</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>616.0432499999999</v>
+        <v>3478.21725</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1535.1977</v>
+        <v>4546.045160000001</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1885.79062</v>
+        <v>5468.90807</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1055.57319</v>
+        <v>1641.99485</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1202.12199</v>
+        <v>4011.61616</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>2451.36948</v>
+        <v>7346.17372</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>923.8420599999999</v>
+        <v>2068.84218</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>2360.389520000001</v>
+        <v>3707.09348</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2981.70683</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>4880.10122</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>9833.633</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>3635.73036</v>
+        <v>8917.43363</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>5503.50866</v>
+        <v>7727.67823</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>15300.43307</v>
+        <v>30483.24089</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>6112.715999999999</v>
+        <v>14983.04787</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>6673.51934</v>
+        <v>14469.18823</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>6095.36681</v>
+        <v>9601.41084</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>5067.98621</v>
+        <v>12195.72867</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>4670.83956</v>
+        <v>8205.308789999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>5412.776309999999</v>
+        <v>14432.3874</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>11511.05144</v>
+        <v>13874.07928</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>7728.6888</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>9877.892660000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>11440.519</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>67458.72606</v>
+        <v>101263.50184</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>75219.052</v>
+        <v>128466.65132</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>379968.94658</v>
+        <v>578100.6516399999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>82693.66099999998</v>
+        <v>116683.082</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>88958.15226999999</v>
+        <v>128716.50757</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>202491.01427</v>
+        <v>293234.5051799999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>101290.43543</v>
+        <v>183138.07415</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>210201.91069</v>
+        <v>487788.7227700001</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>102789.97705</v>
+        <v>202080.19259</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>351983.19858</v>
+        <v>639576.03499</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>235621.67797</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>379674.20721</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>941597.665</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>3398.281779999999</v>
+        <v>209350.3454</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>34686.19333000001</v>
+        <v>115093.96666</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-307445.0545200001</v>
+        <v>-562719.29456</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>6449.405999999998</v>
+        <v>173712.04765</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>29675.14675</v>
+        <v>159068.19306</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-99730.14508</v>
+        <v>30442.70917</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-41333.04336</v>
+        <v>596596.20124</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-211864.6435</v>
+        <v>-717588.9884400001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-56920.07502</v>
+        <v>41388.67487</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-151154.42398</v>
+        <v>-1430699.785139999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-28358.7174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-535439.9558699999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-1670007.002</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>32564.21577</v>
+        <v>37976.71364</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>36895.36547999999</v>
+        <v>48409.79142</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>40071.59108</v>
+        <v>50689.26936</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>39081.97540999999</v>
+        <v>48470.56417999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>43334.608</v>
+        <v>61018.94601000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>43056.11373</v>
+        <v>57806.70815000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>45700.64227</v>
+        <v>66726.73311999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>44706.82388</v>
+        <v>85114.19875999998</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>44889.73486</v>
+        <v>74454.5454</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>113646.28874</v>
+        <v>166535.28542</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>117264.35381</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>189671.73943</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>258149.401</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-29165.93398999999</v>
+        <v>171373.63176</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-2209.172149999998</v>
+        <v>66684.17524000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-347516.6456</v>
+        <v>-613408.5639200001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-32632.56941</v>
+        <v>125241.48347</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-13659.46125</v>
+        <v>98049.24704999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-142786.25881</v>
+        <v>-27363.99898000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-87033.68562999999</v>
+        <v>529869.46812</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-256571.46738</v>
+        <v>-802703.1872</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-101809.80988</v>
+        <v>-33065.87053000003</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-264800.71272</v>
+        <v>-1597235.07056</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-145623.07121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-725111.6952999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-1928156.403</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>25245</v>
+        <v>26336</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>26331</v>
+        <v>27589</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>26604</v>
+        <v>27983</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>25951</v>
+        <v>27603</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>25984</v>
+        <v>27880</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>25289</v>
+        <v>27469</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>24493</v>
+        <v>27253</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>24251</v>
+        <v>27310</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>24420</v>
+        <v>27536</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>29070</v>
+        <v>31513</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>29111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>32642</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>34030</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>